--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3953853.964141638</v>
+        <v>3951973.78437131</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>270.7773459850746</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.98425264020207</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>48.26252137233877</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.03250833503017</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164004356</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>52.26593503209685</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056517</v>
+        <v>17.78458198347522</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>29.95674689784878</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578918</v>
@@ -2065,10 +2065,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.41761368552037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>29.95674689784887</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>70.41761368552139</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578918</v>
@@ -2302,7 +2302,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.41761368552115</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
@@ -2530,7 +2530,7 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>183.9479879391036</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552073</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,10 +2773,10 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>32.17260554604634</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.54261572246286</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578919</v>
@@ -3013,10 +3013,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3788565737681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>327.455452512359</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2648.399069430002</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.336182086431</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.567526816317</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>156.7517573047575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,16 +5060,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020477</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>622.2132292685492</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765189</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>531.397718270632</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336715</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,16 +5510,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,16 +5531,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701559</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619865</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.623401105981</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>285.260441632776</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>127.4764317611432</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366499</v>
+        <v>120.5300287366504</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937162</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449752</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953624</v>
+        <v>563.5254386134624</v>
       </c>
       <c r="W19" t="n">
-        <v>385.183372014676</v>
+        <v>285.260441632776</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729326</v>
+        <v>285.260441632776</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>285.260441632776</v>
       </c>
     </row>
     <row r="20">
@@ -5753,10 +5753,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>285.260441632776</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>127.4764317611433</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1515.229326344889</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1326.461489316716</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1113.828247162496</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>835.851781432328</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V22" t="n">
-        <v>592.3194662827154</v>
+        <v>563.5254386134624</v>
       </c>
       <c r="W22" t="n">
-        <v>314.054469302029</v>
+        <v>285.260441632776</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>285.260441632776</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>285.260441632776</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6005,16 +6005,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1515.229326344889</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1326.461489316716</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1113.828247162496</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>835.8517814323282</v>
+        <v>999.1511014518064</v>
       </c>
       <c r="V25" t="n">
-        <v>592.3194662827154</v>
+        <v>755.6187863021937</v>
       </c>
       <c r="W25" t="n">
-        <v>314.054469302029</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6263,7 +6263,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729329</v>
+        <v>531.0278572538201</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729329</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729329</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729329</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6382,10 +6382,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
         <v>540.2879676172993</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449753</v>
+        <v>807.0577537630757</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953626</v>
+        <v>563.5254386134629</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146761</v>
+        <v>563.5254386134629</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729329</v>
+        <v>531.0278572538201</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729329</v>
+        <v>531.0278572538201</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028587</v>
@@ -6628,7 +6628,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1508.032354590403</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1319.264517562229</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1106.631275408009</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449754</v>
+        <v>828.6548096778411</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953627</v>
+        <v>585.1224945282283</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146761</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729329</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,16 +7351,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7813,43 +7813,43 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735878</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814756</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.6026921294538</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814819</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359983</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>188.8856946302407</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.53204524670082</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>234.2570633044942</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338545</v>
+        <v>207.9250734055619</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23890,10 @@
         <v>168.7913288562258</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>107.6180747946521</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208577</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.126388340863</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>168.7913288562258</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>107.618074794652</v>
       </c>
       <c r="E22" t="n">
         <v>135.3933113208577</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.50608739255994</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
         <v>207.5440020263833</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.5060873925602</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.24871313376232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169912</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>182.4963985172794</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>85.7885560873959</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>137.574821692501</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>21.38108535561854</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652087.094311049</v>
+        <v>652087.0943110489</v>
       </c>
     </row>
     <row r="12">
@@ -26314,25 +26314,25 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="J2" t="n">
         <v>748956.5829925195</v>
@@ -26344,16 +26344,16 @@
         <v>779989.6813710695</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.52106056913</v>
+        <v>8832.52106056915</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971008</v>
+        <v>25807.53208971004</v>
       </c>
       <c r="H4" t="n">
-        <v>25807.53208971003</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971004</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208970999</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,13 +26451,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340937</v>
+        <v>-58470.14369340925</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.7355211352</v>
+        <v>531497.735521135</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.735521135</v>
+        <v>531497.7355211349</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891639</v>
+        <v>103535.7843631912</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660598</v>
+        <v>628695.8208400881</v>
       </c>
       <c r="G6" t="n">
-        <v>621401.027377222</v>
+        <v>621319.3613288577</v>
       </c>
       <c r="H6" t="n">
-        <v>630233.5484377911</v>
+        <v>630151.8823894269</v>
       </c>
       <c r="I6" t="n">
-        <v>630233.5484377914</v>
+        <v>630151.8823894269</v>
       </c>
       <c r="J6" t="n">
-        <v>453810.3292451988</v>
+        <v>453728.663196834</v>
       </c>
       <c r="K6" t="n">
-        <v>630233.5484377913</v>
+        <v>630151.8823894267</v>
       </c>
       <c r="L6" t="n">
         <v>583175.6686191404</v>
       </c>
       <c r="M6" t="n">
-        <v>502880.1654890157</v>
+        <v>502880.1654890158</v>
       </c>
       <c r="N6" t="n">
-        <v>637681.1807228527</v>
+        <v>637681.1807228529</v>
       </c>
       <c r="O6" t="n">
-        <v>637681.1807228527</v>
+        <v>637681.1807228529</v>
       </c>
       <c r="P6" t="n">
         <v>637681.1807228529</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.1454267792825</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>113.1866362015931</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>202.9616461359505</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>107.5829646831822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080736</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>44.65327491702001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212926</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>429.281406629612</v>
+        <v>271.3017255626798</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341718</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>446.7972655274668</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341723</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>23.54842149127695</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
         <v>285.350492504684</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453843</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36610,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>471.2493968713488</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>506.0379672345559</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>23.54842149127693</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37002,7 +37002,7 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
         <v>189.4242519375122</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>322.7897502027251</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,16 +37947,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
